--- a/assets/stages/maps/MapEditor/Room5.xlsx
+++ b/assets/stages/maps/MapEditor/Room5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F927F2A-0456-4EDC-B11C-7BC6D8236E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC18341C-C78B-44DD-BC08-583BD7B6D834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="3180" windowWidth="23040" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3744" yWindow="3180" windowWidth="23040" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -117,7 +116,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -125,6 +124,20 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -140,20 +153,6 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -433,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -545,94 +544,94 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="L2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2</v>
-      </c>
       <c r="M2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF2" s="1">
         <v>1</v>
@@ -643,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>-1</v>
@@ -703,34 +702,34 @@
         <v>-1</v>
       </c>
       <c r="V3" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W3" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X3" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y3" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z3" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA3" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB3" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AC3" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD3" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF3" s="1">
         <v>1</v>
@@ -741,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>-1</v>
@@ -801,34 +800,34 @@
         <v>-1</v>
       </c>
       <c r="V4" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W4" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X4" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y4" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z4" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA4" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB4" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AC4" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD4" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="1">
         <v>1</v>
@@ -839,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>-1</v>
@@ -914,10 +913,10 @@
         <v>-1</v>
       </c>
       <c r="AA5" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB5" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AC5" s="1">
         <v>-1</v>
@@ -926,10 +925,10 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -937,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>-1</v>
@@ -1024,10 +1023,10 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1035,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>-1</v>
@@ -1122,10 +1121,10 @@
         <v>-1</v>
       </c>
       <c r="AE7" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -1133,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>-1</v>
@@ -1154,10 +1153,10 @@
         <v>-1</v>
       </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J8" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="1">
         <v>-1</v>
@@ -1199,13 +1198,13 @@
         <v>-1</v>
       </c>
       <c r="X8" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y8" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z8" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA8" s="1">
         <v>-1</v>
@@ -1214,13 +1213,13 @@
         <v>-1</v>
       </c>
       <c r="AC8" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD8" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF8" s="1">
         <v>1</v>
@@ -1231,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>-1</v>
@@ -1252,16 +1251,16 @@
         <v>-1</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J9" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K9" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L9" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1">
         <v>-1</v>
@@ -1300,10 +1299,10 @@
         <v>-1</v>
       </c>
       <c r="Y9" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z9" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA9" s="1">
         <v>-1</v>
@@ -1312,13 +1311,13 @@
         <v>-1</v>
       </c>
       <c r="AC9" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD9" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="1">
         <v>1</v>
@@ -1329,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>-1</v>
@@ -1356,10 +1355,10 @@
         <v>-1</v>
       </c>
       <c r="K10" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L10" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M10" s="1">
         <v>-1</v>
@@ -1416,7 +1415,7 @@
         <v>-1</v>
       </c>
       <c r="AE10" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF10" s="1">
         <v>1</v>
@@ -1427,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>-1</v>
@@ -1454,10 +1453,10 @@
         <v>-1</v>
       </c>
       <c r="K11" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L11" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M11" s="1">
         <v>-1</v>
@@ -1469,10 +1468,10 @@
         <v>-1</v>
       </c>
       <c r="P11" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q11" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R11" s="1">
         <v>-1</v>
@@ -1487,10 +1486,10 @@
         <v>-1</v>
       </c>
       <c r="V11" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W11" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X11" s="1">
         <v>-1</v>
@@ -1514,7 +1513,7 @@
         <v>-1</v>
       </c>
       <c r="AE11" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="1">
         <v>1</v>
@@ -1525,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>-1</v>
@@ -1552,10 +1551,10 @@
         <v>-1</v>
       </c>
       <c r="K12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M12" s="1">
         <v>-1</v>
@@ -1567,16 +1566,16 @@
         <v>-1</v>
       </c>
       <c r="P12" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q12" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R12" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S12" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="T12" s="1">
         <v>-1</v>
@@ -1612,7 +1611,7 @@
         <v>-1</v>
       </c>
       <c r="AE12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF12" s="1">
         <v>1</v>
@@ -1623,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <v>-1</v>
@@ -1650,10 +1649,10 @@
         <v>-1</v>
       </c>
       <c r="K13" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L13" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M13" s="1">
         <v>-1</v>
@@ -1710,7 +1709,7 @@
         <v>-1</v>
       </c>
       <c r="AE13" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF13" s="1">
         <v>1</v>
@@ -1721,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
         <v>-1</v>
@@ -1748,10 +1747,10 @@
         <v>-1</v>
       </c>
       <c r="K14" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L14" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M14" s="1">
         <v>-1</v>
@@ -1808,7 +1807,7 @@
         <v>-1</v>
       </c>
       <c r="AE14" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF14" s="1">
         <v>1</v>
@@ -1819,97 +1818,97 @@
         <v>1</v>
       </c>
       <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2</v>
-      </c>
-      <c r="J15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K15" s="1">
-        <v>-1</v>
-      </c>
       <c r="L15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="O15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="T15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="U15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AC15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF15" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
@@ -1917,97 +1916,97 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>-1</v>
-      </c>
       <c r="L16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="O16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="T16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="U16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AC16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF16" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -2015,79 +2014,79 @@
         <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P17" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q17" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R17" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S17" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="T17" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="U17" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V17" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W17" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X17" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y17" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z17" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA17" s="1">
         <v>2</v>
@@ -2102,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="AE17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="1">
         <v>1</v>
@@ -2137,10 +2136,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
@@ -2152,40 +2151,40 @@
         <v>1</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA18" s="1">
         <v>1</v>
@@ -2208,17 +2207,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:AC2 AC1:AF3 C2:AE3 AE2:AE14 B2:B16 A3:Z4 C3:U5 G3:AC6 Z3:Z10 C4:AF4 C4:F17 U5:AF5 H5:J12 V5:AF12 N5:N13 C5:H14 A5:B18 C6:Q7 S6:AF7 R6:R8 M6:M16 B7:AF12 C7:G16 K10:L14 C12:AF18">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:AF18">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:U5 V5:AF5 G6:U6 C6:Q7 S6:AF7 M6:M8 R6:R8 W6:W8 Z6:Z8 H7:P14 N8:AF8 S8:S11 V8:V11 Y8:Y11 C8:G16 Q9:AF11 T12:Y12 Z12:AF14 Q13:Y14 J15:K18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2231,7 +2230,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2266,9 +2265,6 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
@@ -2300,8 +2296,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
+      <c r="AB2" s="2"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -2334,8 +2329,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="AB3" s="2"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -2368,7 +2362,6 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
@@ -2407,9 +2400,6 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="6">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -2443,9 +2433,6 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="6">
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2479,9 +2466,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="6">
-        <v>3</v>
-      </c>
+      <c r="AF7" s="2"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2515,7 +2500,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="6"/>
+      <c r="AF8" s="2"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -2616,8 +2601,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="2"/>
+      <c r="AE11" s="3"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -2651,7 +2635,6 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -2685,7 +2668,6 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -2719,7 +2701,6 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="3"/>
-      <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -2753,7 +2734,9 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="4"/>
-      <c r="AF15" s="2"/>
+      <c r="AF15" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -2787,7 +2770,9 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="2"/>
+      <c r="AF16" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -2879,17 +2864,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="AF8"/>
+  <dimension ref="L14:AF15"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="32:32" x14ac:dyDescent="0.25">
-      <c r="AF8">
+    <row r="14" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="AF14">
         <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/assets/stages/maps/MapEditor/Room5.xlsx
+++ b/assets/stages/maps/MapEditor/Room5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dusti\Documents\Programming\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC18341C-C78B-44DD-BC08-583BD7B6D834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA450D5C-5E94-4F26-B9D0-B37AE03EBCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="3180" windowWidth="23040" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -432,16 +432,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1043,10 +1043,10 @@
         <v>-1</v>
       </c>
       <c r="E7" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
         <v>-1</v>
@@ -1061,10 +1061,10 @@
         <v>-1</v>
       </c>
       <c r="K7" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L7" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M7" s="1">
         <v>-1</v>
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1141,10 +1141,10 @@
         <v>-1</v>
       </c>
       <c r="E8" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1">
         <v>-1</v>
@@ -1159,10 +1159,10 @@
         <v>-1</v>
       </c>
       <c r="K8" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L8" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M8" s="1">
         <v>-1</v>
@@ -1225,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1239,10 +1239,10 @@
         <v>-1</v>
       </c>
       <c r="E9" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
         <v>-1</v>
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1337,10 +1337,10 @@
         <v>-1</v>
       </c>
       <c r="E10" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1">
         <v>-1</v>
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1435,10 +1435,10 @@
         <v>-1</v>
       </c>
       <c r="E11" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
         <v>-1</v>
@@ -1519,24 +1519,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>-1</v>
@@ -1617,24 +1617,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>-1</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2207,7 +2207,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AC2 AC1:AF3 C2:AE3 AE2:AE14 B2:B16 A3:Z4 C3:U5 G3:AC6 Z3:Z10 C4:AF4 C4:F17 U5:AF5 H5:J12 V5:AF12 N5:N13 C5:H14 A5:B18 C6:Q7 S6:AF7 R6:R8 M6:M16 B7:AF12 C7:G16 K10:L14 C12:AF18">
+  <conditionalFormatting sqref="A1:AC2 AC1:AF3 C2:AE3 AE2:AE14 B2:B16 A3:Z4 C3:U5 G3:AC6 Z3:Z10 C4:AF4 C4:F17 U5:AF5 H5:J12 V5:AF12 N5:N13 C5:H14 A5:B18 C6:Q7 S6:AF7 R6:R8 M6:M16 K10:L14 C12:AF18 B12:F13 C7:G16 B7:AF12">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -2221,7 +2221,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2230,15 +2230,15 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2269,7 +2269,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2302,7 +2302,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2335,7 +2335,7 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2368,7 +2368,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2401,7 +2401,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2434,7 +2434,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2468,7 +2468,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2502,7 +2502,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2536,7 +2536,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2570,11 +2570,13 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2603,7 +2605,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2636,7 +2638,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2669,7 +2671,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2702,7 +2704,7 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="3"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2738,7 +2740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2774,7 +2776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2808,7 +2810,7 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2855,7 +2857,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2864,21 +2866,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="L14:AF15"/>
+  <dimension ref="F10:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="14" spans="12:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:32" x14ac:dyDescent="0.4">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="6:32" x14ac:dyDescent="0.4">
       <c r="AF14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="12:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:32" x14ac:dyDescent="0.4">
       <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="28:28" x14ac:dyDescent="0.4">
+      <c r="AB18">
         <v>1</v>
       </c>
     </row>
